--- a/每日学习记录.xlsx
+++ b/每日学习记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>第一轮学习；第二轮是复习</t>
   </si>
@@ -66,7 +66,7 @@
     <t>听力：1.KK英语，listen to this 系列
 单词：秒杀7000词（百度网盘）/人人说英语（百度网盘）
 会话：赖世雄（百度网盘）
-口语：英语听听等软件</t>
+口语：英语听听等软件,每天早上背英语</t>
   </si>
   <si>
     <t>Git基础命令</t>
@@ -88,6 +88,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Linux基础命令已学完；</t>
     </r>
     <r>
@@ -113,6 +121,21 @@
   <si>
     <t>字典</t>
   </si>
+  <si>
+    <t>集合</t>
+  </si>
+  <si>
+    <t>文件</t>
+  </si>
+  <si>
+    <t>文件系统</t>
+  </si>
+  <si>
+    <t>异常</t>
+  </si>
+  <si>
+    <t>with用法</t>
+  </si>
 </sst>
 </file>
 
@@ -120,9 +143,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -156,6 +179,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -163,6 +231,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -170,8 +246,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,29 +300,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,89 +324,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -322,31 +346,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,151 +520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,41 +557,17 @@
       </diagonal>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,16 +588,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,7 +626,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,152 +659,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,12 +827,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -817,10 +835,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1174,7 +1192,7 @@
   <dimension ref="A1:M134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1217,13 +1235,13 @@
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1255,10 +1273,10 @@
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="98" customHeight="1" spans="1:10">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1287,19 +1305,19 @@
       </c>
     </row>
     <row r="4" s="3" customFormat="1" ht="57" customHeight="1" spans="1:4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
-      <c r="A5" s="13">
+      <c r="A5" s="10">
         <v>44516</v>
       </c>
       <c r="E5" t="s">
@@ -1310,7 +1328,7 @@
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:5">
-      <c r="A6" s="13">
+      <c r="A6" s="10">
         <v>44517</v>
       </c>
       <c r="B6" t="s">
@@ -1320,611 +1338,626 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="30" customHeight="1" spans="1:1">
-      <c r="A7" s="13">
+    <row r="7" ht="30" customHeight="1" spans="1:5">
+      <c r="A7" s="10">
         <v>44518</v>
       </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:1">
-      <c r="A8" s="13">
+      <c r="A8" s="10">
         <v>44519</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:1">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>44520</v>
       </c>
     </row>
-    <row r="10" ht="30" customHeight="1" spans="1:1">
-      <c r="A10" s="13">
+    <row r="10" ht="30" customHeight="1" spans="1:5">
+      <c r="A10" s="11">
         <v>44521</v>
       </c>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="1:1">
-      <c r="A11" s="13">
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:5">
+      <c r="A11" s="10">
         <v>44522</v>
       </c>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="1:1">
-      <c r="A12" s="13">
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="1:5">
+      <c r="A12" s="10">
         <v>44523</v>
       </c>
-    </row>
-    <row r="13" ht="30" customHeight="1" spans="1:1">
-      <c r="A13" s="13">
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:5">
+      <c r="A13" s="10">
         <v>44524</v>
       </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:1">
-      <c r="A14" s="13">
+      <c r="A14" s="10">
         <v>44525</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:1">
-      <c r="A15" s="13">
+      <c r="A15" s="10">
         <v>44526</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:1">
-      <c r="A16" s="13">
+      <c r="A16" s="11">
         <v>44527</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:1">
-      <c r="A17" s="13">
+      <c r="A17" s="11">
         <v>44528</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:1">
-      <c r="A18" s="13">
+      <c r="A18" s="10">
         <v>44529</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:1">
-      <c r="A19" s="13">
+      <c r="A19" s="10">
         <v>44530</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:1">
-      <c r="A20" s="13">
+      <c r="A20" s="10">
         <v>44531</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:1">
-      <c r="A21" s="13">
+      <c r="A21" s="10">
         <v>44532</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:1">
-      <c r="A22" s="13">
+      <c r="A22" s="10">
         <v>44533</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:1">
-      <c r="A23" s="13">
+      <c r="A23" s="11">
         <v>44534</v>
       </c>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:1">
-      <c r="A24" s="13">
+      <c r="A24" s="11">
         <v>44535</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:1">
-      <c r="A25" s="13">
+      <c r="A25" s="10">
         <v>44536</v>
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:1">
-      <c r="A26" s="13">
+      <c r="A26" s="10">
         <v>44537</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:1">
-      <c r="A27" s="13">
+      <c r="A27" s="10">
         <v>44538</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:1">
-      <c r="A28" s="13">
+      <c r="A28" s="10">
         <v>44539</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:1">
-      <c r="A29" s="13">
+      <c r="A29" s="10">
         <v>44540</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:1">
-      <c r="A30" s="13">
+      <c r="A30" s="10">
         <v>44541</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:1">
-      <c r="A31" s="13">
+      <c r="A31" s="10">
         <v>44542</v>
       </c>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:1">
-      <c r="A32" s="13">
+      <c r="A32" s="10">
         <v>44543</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:1">
-      <c r="A33" s="13">
+      <c r="A33" s="10">
         <v>44544</v>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:1">
-      <c r="A34" s="13">
+      <c r="A34" s="10">
         <v>44545</v>
       </c>
     </row>
     <row r="35" ht="30" customHeight="1" spans="1:1">
-      <c r="A35" s="13">
+      <c r="A35" s="10">
         <v>44546</v>
       </c>
     </row>
     <row r="36" ht="30" customHeight="1" spans="1:1">
-      <c r="A36" s="13">
+      <c r="A36" s="10">
         <v>44547</v>
       </c>
     </row>
     <row r="37" ht="30" customHeight="1" spans="1:1">
-      <c r="A37" s="13">
+      <c r="A37" s="10">
         <v>44548</v>
       </c>
     </row>
     <row r="38" ht="30" customHeight="1" spans="1:1">
-      <c r="A38" s="13">
+      <c r="A38" s="10">
         <v>44549</v>
       </c>
     </row>
     <row r="39" ht="30" customHeight="1" spans="1:1">
-      <c r="A39" s="13">
+      <c r="A39" s="10">
         <v>44550</v>
       </c>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:1">
-      <c r="A40" s="13">
+      <c r="A40" s="10">
         <v>44551</v>
       </c>
     </row>
     <row r="41" ht="30" customHeight="1" spans="1:1">
-      <c r="A41" s="13">
+      <c r="A41" s="10">
         <v>44552</v>
       </c>
     </row>
     <row r="42" ht="30" customHeight="1" spans="1:1">
-      <c r="A42" s="13">
+      <c r="A42" s="10">
         <v>44553</v>
       </c>
     </row>
     <row r="43" ht="30" customHeight="1" spans="1:1">
-      <c r="A43" s="13">
+      <c r="A43" s="10">
         <v>44554</v>
       </c>
     </row>
     <row r="44" ht="30" customHeight="1" spans="1:1">
-      <c r="A44" s="13">
+      <c r="A44" s="10">
         <v>44555</v>
       </c>
     </row>
     <row r="45" ht="30" customHeight="1" spans="1:1">
-      <c r="A45" s="13">
+      <c r="A45" s="10">
         <v>44556</v>
       </c>
     </row>
     <row r="46" ht="30" customHeight="1" spans="1:1">
-      <c r="A46" s="13">
+      <c r="A46" s="10">
         <v>44557</v>
       </c>
     </row>
     <row r="47" ht="30" customHeight="1" spans="1:1">
-      <c r="A47" s="13">
+      <c r="A47" s="10">
         <v>44558</v>
       </c>
     </row>
     <row r="48" ht="30" customHeight="1" spans="1:1">
-      <c r="A48" s="13">
+      <c r="A48" s="10">
         <v>44559</v>
       </c>
     </row>
     <row r="49" ht="30" customHeight="1" spans="1:1">
-      <c r="A49" s="13">
+      <c r="A49" s="10">
         <v>44560</v>
       </c>
     </row>
     <row r="50" ht="30" customHeight="1" spans="1:1">
-      <c r="A50" s="13">
+      <c r="A50" s="10">
         <v>44561</v>
       </c>
     </row>
     <row r="51" ht="30" customHeight="1" spans="1:1">
-      <c r="A51" s="13">
+      <c r="A51" s="10">
         <v>44562</v>
       </c>
     </row>
     <row r="52" ht="30" customHeight="1" spans="1:1">
-      <c r="A52" s="13">
+      <c r="A52" s="10">
         <v>44563</v>
       </c>
     </row>
     <row r="53" ht="30" customHeight="1" spans="1:1">
-      <c r="A53" s="13">
+      <c r="A53" s="10">
         <v>44564</v>
       </c>
     </row>
     <row r="54" ht="30" customHeight="1" spans="1:1">
-      <c r="A54" s="13">
+      <c r="A54" s="10">
         <v>44565</v>
       </c>
     </row>
     <row r="55" ht="30" customHeight="1" spans="1:1">
-      <c r="A55" s="13">
+      <c r="A55" s="10">
         <v>44566</v>
       </c>
     </row>
     <row r="56" ht="30" customHeight="1" spans="1:1">
-      <c r="A56" s="13">
+      <c r="A56" s="10">
         <v>44567</v>
       </c>
     </row>
     <row r="57" ht="30" customHeight="1" spans="1:1">
-      <c r="A57" s="13">
+      <c r="A57" s="10">
         <v>44568</v>
       </c>
     </row>
     <row r="58" ht="30" customHeight="1" spans="1:1">
-      <c r="A58" s="13">
+      <c r="A58" s="10">
         <v>44569</v>
       </c>
     </row>
     <row r="59" ht="30" customHeight="1" spans="1:1">
-      <c r="A59" s="13">
+      <c r="A59" s="10">
         <v>44570</v>
       </c>
     </row>
     <row r="60" ht="30" customHeight="1" spans="1:1">
-      <c r="A60" s="13">
+      <c r="A60" s="10">
         <v>44571</v>
       </c>
     </row>
     <row r="61" ht="30" customHeight="1" spans="1:1">
-      <c r="A61" s="13">
+      <c r="A61" s="10">
         <v>44572</v>
       </c>
     </row>
     <row r="62" ht="30" customHeight="1" spans="1:1">
-      <c r="A62" s="13">
+      <c r="A62" s="10">
         <v>44573</v>
       </c>
     </row>
     <row r="63" ht="30" customHeight="1" spans="1:1">
-      <c r="A63" s="13">
+      <c r="A63" s="10">
         <v>44574</v>
       </c>
     </row>
     <row r="64" ht="30" customHeight="1" spans="1:1">
-      <c r="A64" s="13">
+      <c r="A64" s="10">
         <v>44575</v>
       </c>
     </row>
     <row r="65" ht="30" customHeight="1" spans="1:1">
-      <c r="A65" s="13">
+      <c r="A65" s="10">
         <v>44576</v>
       </c>
     </row>
     <row r="66" ht="30" customHeight="1" spans="1:1">
-      <c r="A66" s="13">
+      <c r="A66" s="10">
         <v>44577</v>
       </c>
     </row>
     <row r="67" ht="30" customHeight="1" spans="1:1">
-      <c r="A67" s="13">
+      <c r="A67" s="10">
         <v>44578</v>
       </c>
     </row>
     <row r="68" ht="30" customHeight="1" spans="1:1">
-      <c r="A68" s="13">
+      <c r="A68" s="10">
         <v>44579</v>
       </c>
     </row>
     <row r="69" ht="30" customHeight="1" spans="1:1">
-      <c r="A69" s="13">
+      <c r="A69" s="10">
         <v>44580</v>
       </c>
     </row>
     <row r="70" ht="30" customHeight="1" spans="1:1">
-      <c r="A70" s="13">
+      <c r="A70" s="10">
         <v>44581</v>
       </c>
     </row>
     <row r="71" ht="30" customHeight="1" spans="1:1">
-      <c r="A71" s="13">
+      <c r="A71" s="10">
         <v>44582</v>
       </c>
     </row>
     <row r="72" ht="30" customHeight="1" spans="1:1">
-      <c r="A72" s="13">
+      <c r="A72" s="10">
         <v>44583</v>
       </c>
     </row>
     <row r="73" ht="30" customHeight="1" spans="1:1">
-      <c r="A73" s="13">
+      <c r="A73" s="10">
         <v>44584</v>
       </c>
     </row>
     <row r="74" ht="30" customHeight="1" spans="1:1">
-      <c r="A74" s="13">
+      <c r="A74" s="10">
         <v>44585</v>
       </c>
     </row>
     <row r="75" ht="30" customHeight="1" spans="1:1">
-      <c r="A75" s="13">
+      <c r="A75" s="10">
         <v>44586</v>
       </c>
     </row>
     <row r="76" ht="30" customHeight="1" spans="1:1">
-      <c r="A76" s="13">
+      <c r="A76" s="10">
         <v>44587</v>
       </c>
     </row>
     <row r="77" ht="30" customHeight="1" spans="1:1">
-      <c r="A77" s="13">
+      <c r="A77" s="10">
         <v>44588</v>
       </c>
     </row>
     <row r="78" ht="30" customHeight="1" spans="1:1">
-      <c r="A78" s="13">
+      <c r="A78" s="10">
         <v>44589</v>
       </c>
     </row>
     <row r="79" ht="30" customHeight="1" spans="1:1">
-      <c r="A79" s="13">
+      <c r="A79" s="10">
         <v>44590</v>
       </c>
     </row>
     <row r="80" ht="30" customHeight="1" spans="1:1">
-      <c r="A80" s="13">
+      <c r="A80" s="10">
         <v>44591</v>
       </c>
     </row>
     <row r="81" ht="30" customHeight="1" spans="1:1">
-      <c r="A81" s="13">
+      <c r="A81" s="10">
         <v>44592</v>
       </c>
     </row>
     <row r="82" ht="30" customHeight="1" spans="1:1">
-      <c r="A82" s="13">
+      <c r="A82" s="10">
         <v>44593</v>
       </c>
     </row>
     <row r="83" ht="30" customHeight="1" spans="1:1">
-      <c r="A83" s="13">
+      <c r="A83" s="10">
         <v>44594</v>
       </c>
     </row>
     <row r="84" ht="30" customHeight="1" spans="1:1">
-      <c r="A84" s="13">
+      <c r="A84" s="10">
         <v>44595</v>
       </c>
     </row>
     <row r="85" ht="30" customHeight="1" spans="1:1">
-      <c r="A85" s="13">
+      <c r="A85" s="10">
         <v>44596</v>
       </c>
     </row>
     <row r="86" ht="30" customHeight="1" spans="1:1">
-      <c r="A86" s="13">
+      <c r="A86" s="10">
         <v>44597</v>
       </c>
     </row>
     <row r="87" ht="30" customHeight="1" spans="1:1">
-      <c r="A87" s="13">
+      <c r="A87" s="10">
         <v>44598</v>
       </c>
     </row>
     <row r="88" ht="30" customHeight="1" spans="1:1">
-      <c r="A88" s="13">
+      <c r="A88" s="10">
         <v>44599</v>
       </c>
     </row>
     <row r="89" ht="30" customHeight="1" spans="1:1">
-      <c r="A89" s="13">
+      <c r="A89" s="10">
         <v>44600</v>
       </c>
     </row>
     <row r="90" ht="30" customHeight="1" spans="1:1">
-      <c r="A90" s="13">
+      <c r="A90" s="10">
         <v>44601</v>
       </c>
     </row>
     <row r="91" ht="30" customHeight="1" spans="1:1">
-      <c r="A91" s="13">
+      <c r="A91" s="10">
         <v>44602</v>
       </c>
     </row>
     <row r="92" ht="30" customHeight="1" spans="1:1">
-      <c r="A92" s="13">
+      <c r="A92" s="10">
         <v>44603</v>
       </c>
     </row>
     <row r="93" ht="30" customHeight="1" spans="1:1">
-      <c r="A93" s="13">
+      <c r="A93" s="10">
         <v>44604</v>
       </c>
     </row>
     <row r="94" ht="30" customHeight="1" spans="1:1">
-      <c r="A94" s="13">
+      <c r="A94" s="10">
         <v>44605</v>
       </c>
     </row>
     <row r="95" ht="30" customHeight="1" spans="1:1">
-      <c r="A95" s="13">
+      <c r="A95" s="10">
         <v>44606</v>
       </c>
     </row>
     <row r="96" ht="30" customHeight="1" spans="1:1">
-      <c r="A96" s="13">
+      <c r="A96" s="10">
         <v>44607</v>
       </c>
     </row>
     <row r="97" ht="30" customHeight="1" spans="1:1">
-      <c r="A97" s="13">
+      <c r="A97" s="10">
         <v>44608</v>
       </c>
     </row>
     <row r="98" ht="30" customHeight="1" spans="1:1">
-      <c r="A98" s="13">
+      <c r="A98" s="10">
         <v>44609</v>
       </c>
     </row>
     <row r="99" ht="30" customHeight="1" spans="1:1">
-      <c r="A99" s="13">
+      <c r="A99" s="10">
         <v>44610</v>
       </c>
     </row>
     <row r="100" ht="30" customHeight="1" spans="1:1">
-      <c r="A100" s="13">
+      <c r="A100" s="10">
         <v>44611</v>
       </c>
     </row>
     <row r="101" ht="30" customHeight="1" spans="1:1">
-      <c r="A101" s="13">
+      <c r="A101" s="10">
         <v>44612</v>
       </c>
     </row>
     <row r="102" ht="30" customHeight="1" spans="1:1">
-      <c r="A102" s="13">
+      <c r="A102" s="10">
         <v>44613</v>
       </c>
     </row>
     <row r="103" ht="30" customHeight="1" spans="1:1">
-      <c r="A103" s="13">
+      <c r="A103" s="10">
         <v>44614</v>
       </c>
     </row>
     <row r="104" ht="30" customHeight="1" spans="1:1">
-      <c r="A104" s="13">
+      <c r="A104" s="10">
         <v>44615</v>
       </c>
     </row>
     <row r="105" ht="30" customHeight="1" spans="1:1">
-      <c r="A105" s="13">
+      <c r="A105" s="10">
         <v>44616</v>
       </c>
     </row>
     <row r="106" ht="30" customHeight="1" spans="1:1">
-      <c r="A106" s="13">
+      <c r="A106" s="10">
         <v>44617</v>
       </c>
     </row>
     <row r="107" ht="30" customHeight="1" spans="1:1">
-      <c r="A107" s="13">
+      <c r="A107" s="10">
         <v>44618</v>
       </c>
     </row>
     <row r="108" ht="30" customHeight="1" spans="1:1">
-      <c r="A108" s="13">
+      <c r="A108" s="10">
         <v>44619</v>
       </c>
     </row>
     <row r="109" ht="30" customHeight="1" spans="1:1">
-      <c r="A109" s="13">
+      <c r="A109" s="10">
         <v>44620</v>
       </c>
     </row>
     <row r="110" ht="30" customHeight="1" spans="1:1">
-      <c r="A110" s="13">
+      <c r="A110" s="10">
         <v>44621</v>
       </c>
     </row>
     <row r="111" ht="30" customHeight="1" spans="1:1">
-      <c r="A111" s="13">
+      <c r="A111" s="10">
         <v>44622</v>
       </c>
     </row>
     <row r="112" ht="30" customHeight="1" spans="1:1">
-      <c r="A112" s="13">
+      <c r="A112" s="10">
         <v>44623</v>
       </c>
     </row>
     <row r="113" ht="30" customHeight="1" spans="1:1">
-      <c r="A113" s="13">
+      <c r="A113" s="10">
         <v>44624</v>
       </c>
     </row>
     <row r="114" ht="30" customHeight="1" spans="1:1">
-      <c r="A114" s="13">
+      <c r="A114" s="10">
         <v>44625</v>
       </c>
     </row>
     <row r="115" ht="30" customHeight="1" spans="1:1">
-      <c r="A115" s="13">
+      <c r="A115" s="10">
         <v>44626</v>
       </c>
     </row>
     <row r="116" ht="30" customHeight="1" spans="1:1">
-      <c r="A116" s="13">
+      <c r="A116" s="10">
         <v>44627</v>
       </c>
     </row>
     <row r="117" ht="30" customHeight="1" spans="1:1">
-      <c r="A117" s="13">
+      <c r="A117" s="10">
         <v>44628</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="13"/>
+      <c r="A118" s="10"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="13"/>
+      <c r="A119" s="10"/>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="13"/>
+      <c r="A120" s="10"/>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="13"/>
+      <c r="A121" s="10"/>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="13"/>
+      <c r="A122" s="10"/>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="13"/>
+      <c r="A123" s="10"/>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="13"/>
+      <c r="A124" s="10"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="13"/>
+      <c r="A125" s="10"/>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="13"/>
+      <c r="A126" s="10"/>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="13"/>
+      <c r="A127" s="10"/>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="13"/>
+      <c r="A128" s="10"/>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="13"/>
+      <c r="A129" s="10"/>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="13"/>
+      <c r="A130" s="10"/>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="13"/>
+      <c r="A131" s="10"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="13"/>
+      <c r="A132" s="10"/>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="13"/>
+      <c r="A133" s="10"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="13"/>
+      <c r="A134" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/每日学习记录.xlsx
+++ b/每日学习记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
-  <si>
-    <t>第一轮学习；第二轮是复习</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>Date 科目</t>
   </si>
   <si>
     <t>英语</t>
-  </si>
-  <si>
-    <t>Git</t>
   </si>
   <si>
     <t>Linux</t>
@@ -36,40 +30,33 @@
     <t>Python</t>
   </si>
   <si>
-    <t>Mysql</t>
-  </si>
-  <si>
     <t>Shell</t>
   </si>
   <si>
     <t>软件测试基础知识</t>
   </si>
   <si>
-    <t>软件测试工具</t>
+    <t>运动</t>
   </si>
   <si>
     <t>自动化测试</t>
   </si>
   <si>
-    <t>接口测试</t>
+    <t>uds诊断</t>
   </si>
   <si>
-    <t>网络测试</t>
+    <t>集成测试</t>
   </si>
   <si>
-    <t>性能测试</t>
+    <t>培训内容</t>
   </si>
   <si>
     <t>Plan</t>
   </si>
   <si>
-    <t>听力：1.KK英语，listen to this 系列
-单词：秒杀7000词（百度网盘）/人人说英语（百度网盘）
-会话：赖世雄（百度网盘）
-口语：英语听听等软件,每天早上背英语</t>
-  </si>
-  <si>
-    <t>Git基础命令</t>
+    <t>单词：秒杀7000词
+听力：初中-高中-四级-6级-考研-雅思
+（3月-4月-5月-7月-9月-12月-雅思练习直到2月）</t>
   </si>
   <si>
     <t>跟着网易公开课视频学习</t>
@@ -78,45 +65,16 @@
     <t>跟着B站小甲鱼视频在学习；</t>
   </si>
   <si>
+    <t>每日</t>
+  </si>
+  <si>
     <t>主要是学习python和自动化框架</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>已学完</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Linux基础命令已学完；</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>等待学习linux其他知识</t>
-    </r>
+    <t>英语初中听力学习</t>
   </si>
   <si>
     <t>递归</t>
-  </si>
-  <si>
-    <t>删除有外键的关联表</t>
-  </si>
-  <si>
-    <t>记单词39个：秒杀7000词</t>
   </si>
   <si>
     <t>字典</t>
@@ -142,12 +100,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,53 +130,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,13 +152,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -254,8 +160,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,7 +245,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,25 +260,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,22 +273,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -346,187 +289,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,32 +500,11 @@
       </diagonal>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,20 +526,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,11 +542,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,157 +586,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,69 +772,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1187,36 +1124,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:K371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="10.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="52.375" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="27.875" customWidth="1"/>
-    <col min="5" max="5" width="27.375" customWidth="1"/>
-    <col min="6" max="6" width="29.625" customWidth="1"/>
-    <col min="7" max="7" width="30.25" customWidth="1"/>
-    <col min="8" max="8" width="26.125" customWidth="1"/>
-    <col min="9" max="9" width="30" customWidth="1"/>
-    <col min="10" max="10" width="32.625" customWidth="1"/>
-    <col min="11" max="11" width="24.125" customWidth="1"/>
-    <col min="12" max="12" width="27.25" customWidth="1"/>
-    <col min="13" max="13" width="23.125" customWidth="1"/>
-    <col min="14" max="27" width="50.625" customWidth="1"/>
-    <col min="28" max="42" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="27.875" customWidth="1"/>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="5" max="5" width="30.25" customWidth="1"/>
+    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="32.625" customWidth="1"/>
+    <col min="9" max="9" width="24.125" customWidth="1"/>
+    <col min="10" max="10" width="27.25" customWidth="1"/>
+    <col min="11" max="11" width="23.125" customWidth="1"/>
+    <col min="12" max="25" width="50.625" customWidth="1"/>
+    <col min="26" max="40" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
+    <row r="1" spans="1:11">
+      <c r="A1" s="5">
+        <v>2022</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1228,749 +1163,1826 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:11">
       <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+    </row>
+    <row r="3" s="2" customFormat="1" ht="98" customHeight="1" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="98" customHeight="1" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="4" s="3" customFormat="1" ht="57" customHeight="1" spans="1:3">
+      <c r="A4" s="8">
+        <v>44619</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="1:4">
+      <c r="A5" s="8">
+        <v>44620</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2" t="s">
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="1:4">
+      <c r="A6" s="8">
+        <v>44621</v>
+      </c>
+      <c r="B6"/>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="57" customHeight="1" spans="1:4">
-      <c r="A4" s="8" t="s">
+    <row r="7" ht="30" customHeight="1" spans="1:4">
+      <c r="A7" s="8">
+        <v>44622</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="8" ht="30" customHeight="1" spans="1:1">
+      <c r="A8" s="8">
+        <v>44623</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="1:1">
+      <c r="A9" s="8">
+        <v>44624</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:4">
+      <c r="A10" s="8">
+        <v>44625</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9" t="s">
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:4">
+      <c r="A11" s="8">
+        <v>44626</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="1:6">
-      <c r="A5" s="10">
-        <v>44516</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="12" ht="30" customHeight="1" spans="1:4">
+      <c r="A12" s="8">
+        <v>44627</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:4">
+      <c r="A13" s="8">
+        <v>44628</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="30" customHeight="1" spans="1:5">
-      <c r="A6" s="10">
-        <v>44517</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" ht="30" customHeight="1" spans="1:5">
-      <c r="A7" s="10">
-        <v>44518</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" ht="30" customHeight="1" spans="1:1">
-      <c r="A8" s="10">
-        <v>44519</v>
-      </c>
-    </row>
-    <row r="9" ht="30" customHeight="1" spans="1:1">
-      <c r="A9" s="11">
-        <v>44520</v>
-      </c>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="1:5">
-      <c r="A10" s="11">
-        <v>44521</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="1:5">
-      <c r="A11" s="10">
-        <v>44522</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="1:5">
-      <c r="A12" s="10">
-        <v>44523</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="10">
-        <v>44524</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="14" ht="30" customHeight="1" spans="1:1">
-      <c r="A14" s="10">
-        <v>44525</v>
+      <c r="A14" s="8">
+        <v>44629</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:1">
-      <c r="A15" s="10">
-        <v>44526</v>
+      <c r="A15" s="8">
+        <v>44630</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:1">
-      <c r="A16" s="11">
-        <v>44527</v>
+      <c r="A16" s="8">
+        <v>44631</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:1">
-      <c r="A17" s="11">
-        <v>44528</v>
+      <c r="A17" s="8">
+        <v>44632</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:1">
-      <c r="A18" s="10">
-        <v>44529</v>
+      <c r="A18" s="8">
+        <v>44633</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:1">
-      <c r="A19" s="10">
-        <v>44530</v>
+      <c r="A19" s="8">
+        <v>44634</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:1">
-      <c r="A20" s="10">
-        <v>44531</v>
+      <c r="A20" s="8">
+        <v>44635</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:1">
-      <c r="A21" s="10">
-        <v>44532</v>
+      <c r="A21" s="8">
+        <v>44636</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:1">
-      <c r="A22" s="10">
-        <v>44533</v>
+      <c r="A22" s="8">
+        <v>44637</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:1">
-      <c r="A23" s="11">
-        <v>44534</v>
+      <c r="A23" s="8">
+        <v>44638</v>
       </c>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:1">
-      <c r="A24" s="11">
-        <v>44535</v>
+      <c r="A24" s="8">
+        <v>44639</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:1">
-      <c r="A25" s="10">
-        <v>44536</v>
+      <c r="A25" s="8">
+        <v>44640</v>
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:1">
-      <c r="A26" s="10">
-        <v>44537</v>
+      <c r="A26" s="8">
+        <v>44641</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:1">
-      <c r="A27" s="10">
-        <v>44538</v>
+      <c r="A27" s="8">
+        <v>44642</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:1">
-      <c r="A28" s="10">
-        <v>44539</v>
+      <c r="A28" s="8">
+        <v>44643</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:1">
-      <c r="A29" s="10">
-        <v>44540</v>
+      <c r="A29" s="8">
+        <v>44644</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:1">
-      <c r="A30" s="10">
-        <v>44541</v>
+      <c r="A30" s="8">
+        <v>44645</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:1">
-      <c r="A31" s="10">
-        <v>44542</v>
+      <c r="A31" s="8">
+        <v>44646</v>
       </c>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:1">
-      <c r="A32" s="10">
-        <v>44543</v>
+      <c r="A32" s="8">
+        <v>44647</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:1">
-      <c r="A33" s="10">
-        <v>44544</v>
+      <c r="A33" s="8">
+        <v>44648</v>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:1">
-      <c r="A34" s="10">
-        <v>44545</v>
+      <c r="A34" s="8">
+        <v>44649</v>
       </c>
     </row>
     <row r="35" ht="30" customHeight="1" spans="1:1">
-      <c r="A35" s="10">
-        <v>44546</v>
+      <c r="A35" s="8">
+        <v>44650</v>
       </c>
     </row>
     <row r="36" ht="30" customHeight="1" spans="1:1">
-      <c r="A36" s="10">
-        <v>44547</v>
+      <c r="A36" s="8">
+        <v>44651</v>
       </c>
     </row>
     <row r="37" ht="30" customHeight="1" spans="1:1">
-      <c r="A37" s="10">
-        <v>44548</v>
+      <c r="A37" s="8">
+        <v>44652</v>
       </c>
     </row>
     <row r="38" ht="30" customHeight="1" spans="1:1">
-      <c r="A38" s="10">
-        <v>44549</v>
+      <c r="A38" s="8">
+        <v>44653</v>
       </c>
     </row>
     <row r="39" ht="30" customHeight="1" spans="1:1">
-      <c r="A39" s="10">
-        <v>44550</v>
+      <c r="A39" s="8">
+        <v>44654</v>
       </c>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:1">
-      <c r="A40" s="10">
-        <v>44551</v>
+      <c r="A40" s="8">
+        <v>44655</v>
       </c>
     </row>
     <row r="41" ht="30" customHeight="1" spans="1:1">
-      <c r="A41" s="10">
-        <v>44552</v>
+      <c r="A41" s="8">
+        <v>44656</v>
       </c>
     </row>
     <row r="42" ht="30" customHeight="1" spans="1:1">
-      <c r="A42" s="10">
-        <v>44553</v>
+      <c r="A42" s="8">
+        <v>44657</v>
       </c>
     </row>
     <row r="43" ht="30" customHeight="1" spans="1:1">
-      <c r="A43" s="10">
-        <v>44554</v>
+      <c r="A43" s="8">
+        <v>44658</v>
       </c>
     </row>
     <row r="44" ht="30" customHeight="1" spans="1:1">
-      <c r="A44" s="10">
-        <v>44555</v>
+      <c r="A44" s="8">
+        <v>44659</v>
       </c>
     </row>
     <row r="45" ht="30" customHeight="1" spans="1:1">
-      <c r="A45" s="10">
-        <v>44556</v>
+      <c r="A45" s="8">
+        <v>44660</v>
       </c>
     </row>
     <row r="46" ht="30" customHeight="1" spans="1:1">
-      <c r="A46" s="10">
-        <v>44557</v>
+      <c r="A46" s="8">
+        <v>44661</v>
       </c>
     </row>
     <row r="47" ht="30" customHeight="1" spans="1:1">
-      <c r="A47" s="10">
-        <v>44558</v>
+      <c r="A47" s="8">
+        <v>44662</v>
       </c>
     </row>
     <row r="48" ht="30" customHeight="1" spans="1:1">
-      <c r="A48" s="10">
-        <v>44559</v>
+      <c r="A48" s="8">
+        <v>44663</v>
       </c>
     </row>
     <row r="49" ht="30" customHeight="1" spans="1:1">
-      <c r="A49" s="10">
-        <v>44560</v>
+      <c r="A49" s="8">
+        <v>44664</v>
       </c>
     </row>
     <row r="50" ht="30" customHeight="1" spans="1:1">
-      <c r="A50" s="10">
-        <v>44561</v>
+      <c r="A50" s="8">
+        <v>44665</v>
       </c>
     </row>
     <row r="51" ht="30" customHeight="1" spans="1:1">
-      <c r="A51" s="10">
-        <v>44562</v>
+      <c r="A51" s="8">
+        <v>44666</v>
       </c>
     </row>
     <row r="52" ht="30" customHeight="1" spans="1:1">
-      <c r="A52" s="10">
-        <v>44563</v>
+      <c r="A52" s="8">
+        <v>44667</v>
       </c>
     </row>
     <row r="53" ht="30" customHeight="1" spans="1:1">
-      <c r="A53" s="10">
-        <v>44564</v>
+      <c r="A53" s="8">
+        <v>44668</v>
       </c>
     </row>
     <row r="54" ht="30" customHeight="1" spans="1:1">
-      <c r="A54" s="10">
-        <v>44565</v>
+      <c r="A54" s="8">
+        <v>44669</v>
       </c>
     </row>
     <row r="55" ht="30" customHeight="1" spans="1:1">
-      <c r="A55" s="10">
-        <v>44566</v>
+      <c r="A55" s="8">
+        <v>44670</v>
       </c>
     </row>
     <row r="56" ht="30" customHeight="1" spans="1:1">
-      <c r="A56" s="10">
-        <v>44567</v>
+      <c r="A56" s="8">
+        <v>44671</v>
       </c>
     </row>
     <row r="57" ht="30" customHeight="1" spans="1:1">
-      <c r="A57" s="10">
-        <v>44568</v>
+      <c r="A57" s="8">
+        <v>44672</v>
       </c>
     </row>
     <row r="58" ht="30" customHeight="1" spans="1:1">
-      <c r="A58" s="10">
-        <v>44569</v>
+      <c r="A58" s="8">
+        <v>44673</v>
       </c>
     </row>
     <row r="59" ht="30" customHeight="1" spans="1:1">
-      <c r="A59" s="10">
-        <v>44570</v>
+      <c r="A59" s="8">
+        <v>44674</v>
       </c>
     </row>
     <row r="60" ht="30" customHeight="1" spans="1:1">
-      <c r="A60" s="10">
-        <v>44571</v>
+      <c r="A60" s="8">
+        <v>44675</v>
       </c>
     </row>
     <row r="61" ht="30" customHeight="1" spans="1:1">
-      <c r="A61" s="10">
-        <v>44572</v>
+      <c r="A61" s="8">
+        <v>44676</v>
       </c>
     </row>
     <row r="62" ht="30" customHeight="1" spans="1:1">
-      <c r="A62" s="10">
-        <v>44573</v>
+      <c r="A62" s="8">
+        <v>44677</v>
       </c>
     </row>
     <row r="63" ht="30" customHeight="1" spans="1:1">
-      <c r="A63" s="10">
-        <v>44574</v>
+      <c r="A63" s="8">
+        <v>44678</v>
       </c>
     </row>
     <row r="64" ht="30" customHeight="1" spans="1:1">
-      <c r="A64" s="10">
-        <v>44575</v>
+      <c r="A64" s="8">
+        <v>44679</v>
       </c>
     </row>
     <row r="65" ht="30" customHeight="1" spans="1:1">
-      <c r="A65" s="10">
-        <v>44576</v>
+      <c r="A65" s="8">
+        <v>44680</v>
       </c>
     </row>
     <row r="66" ht="30" customHeight="1" spans="1:1">
-      <c r="A66" s="10">
-        <v>44577</v>
+      <c r="A66" s="8">
+        <v>44681</v>
       </c>
     </row>
     <row r="67" ht="30" customHeight="1" spans="1:1">
-      <c r="A67" s="10">
-        <v>44578</v>
+      <c r="A67" s="8">
+        <v>44682</v>
       </c>
     </row>
     <row r="68" ht="30" customHeight="1" spans="1:1">
-      <c r="A68" s="10">
-        <v>44579</v>
+      <c r="A68" s="8">
+        <v>44683</v>
       </c>
     </row>
     <row r="69" ht="30" customHeight="1" spans="1:1">
-      <c r="A69" s="10">
-        <v>44580</v>
+      <c r="A69" s="8">
+        <v>44684</v>
       </c>
     </row>
     <row r="70" ht="30" customHeight="1" spans="1:1">
-      <c r="A70" s="10">
-        <v>44581</v>
+      <c r="A70" s="8">
+        <v>44685</v>
       </c>
     </row>
     <row r="71" ht="30" customHeight="1" spans="1:1">
-      <c r="A71" s="10">
-        <v>44582</v>
+      <c r="A71" s="8">
+        <v>44686</v>
       </c>
     </row>
     <row r="72" ht="30" customHeight="1" spans="1:1">
-      <c r="A72" s="10">
-        <v>44583</v>
+      <c r="A72" s="8">
+        <v>44687</v>
       </c>
     </row>
     <row r="73" ht="30" customHeight="1" spans="1:1">
-      <c r="A73" s="10">
-        <v>44584</v>
+      <c r="A73" s="8">
+        <v>44688</v>
       </c>
     </row>
     <row r="74" ht="30" customHeight="1" spans="1:1">
-      <c r="A74" s="10">
-        <v>44585</v>
+      <c r="A74" s="8">
+        <v>44689</v>
       </c>
     </row>
     <row r="75" ht="30" customHeight="1" spans="1:1">
-      <c r="A75" s="10">
-        <v>44586</v>
+      <c r="A75" s="8">
+        <v>44690</v>
       </c>
     </row>
     <row r="76" ht="30" customHeight="1" spans="1:1">
-      <c r="A76" s="10">
-        <v>44587</v>
+      <c r="A76" s="8">
+        <v>44691</v>
       </c>
     </row>
     <row r="77" ht="30" customHeight="1" spans="1:1">
-      <c r="A77" s="10">
-        <v>44588</v>
+      <c r="A77" s="8">
+        <v>44692</v>
       </c>
     </row>
     <row r="78" ht="30" customHeight="1" spans="1:1">
-      <c r="A78" s="10">
-        <v>44589</v>
+      <c r="A78" s="8">
+        <v>44693</v>
       </c>
     </row>
     <row r="79" ht="30" customHeight="1" spans="1:1">
-      <c r="A79" s="10">
-        <v>44590</v>
+      <c r="A79" s="8">
+        <v>44694</v>
       </c>
     </row>
     <row r="80" ht="30" customHeight="1" spans="1:1">
-      <c r="A80" s="10">
-        <v>44591</v>
+      <c r="A80" s="8">
+        <v>44695</v>
       </c>
     </row>
     <row r="81" ht="30" customHeight="1" spans="1:1">
-      <c r="A81" s="10">
-        <v>44592</v>
+      <c r="A81" s="8">
+        <v>44696</v>
       </c>
     </row>
     <row r="82" ht="30" customHeight="1" spans="1:1">
-      <c r="A82" s="10">
-        <v>44593</v>
+      <c r="A82" s="8">
+        <v>44697</v>
       </c>
     </row>
     <row r="83" ht="30" customHeight="1" spans="1:1">
-      <c r="A83" s="10">
-        <v>44594</v>
+      <c r="A83" s="8">
+        <v>44698</v>
       </c>
     </row>
     <row r="84" ht="30" customHeight="1" spans="1:1">
-      <c r="A84" s="10">
-        <v>44595</v>
+      <c r="A84" s="8">
+        <v>44699</v>
       </c>
     </row>
     <row r="85" ht="30" customHeight="1" spans="1:1">
-      <c r="A85" s="10">
-        <v>44596</v>
+      <c r="A85" s="8">
+        <v>44700</v>
       </c>
     </row>
     <row r="86" ht="30" customHeight="1" spans="1:1">
-      <c r="A86" s="10">
-        <v>44597</v>
+      <c r="A86" s="8">
+        <v>44701</v>
       </c>
     </row>
     <row r="87" ht="30" customHeight="1" spans="1:1">
-      <c r="A87" s="10">
-        <v>44598</v>
+      <c r="A87" s="8">
+        <v>44702</v>
       </c>
     </row>
     <row r="88" ht="30" customHeight="1" spans="1:1">
-      <c r="A88" s="10">
-        <v>44599</v>
+      <c r="A88" s="8">
+        <v>44703</v>
       </c>
     </row>
     <row r="89" ht="30" customHeight="1" spans="1:1">
-      <c r="A89" s="10">
-        <v>44600</v>
+      <c r="A89" s="8">
+        <v>44704</v>
       </c>
     </row>
     <row r="90" ht="30" customHeight="1" spans="1:1">
-      <c r="A90" s="10">
-        <v>44601</v>
+      <c r="A90" s="8">
+        <v>44705</v>
       </c>
     </row>
     <row r="91" ht="30" customHeight="1" spans="1:1">
-      <c r="A91" s="10">
-        <v>44602</v>
+      <c r="A91" s="8">
+        <v>44706</v>
       </c>
     </row>
     <row r="92" ht="30" customHeight="1" spans="1:1">
-      <c r="A92" s="10">
-        <v>44603</v>
+      <c r="A92" s="8">
+        <v>44707</v>
       </c>
     </row>
     <row r="93" ht="30" customHeight="1" spans="1:1">
-      <c r="A93" s="10">
-        <v>44604</v>
+      <c r="A93" s="8">
+        <v>44708</v>
       </c>
     </row>
     <row r="94" ht="30" customHeight="1" spans="1:1">
-      <c r="A94" s="10">
-        <v>44605</v>
+      <c r="A94" s="8">
+        <v>44709</v>
       </c>
     </row>
     <row r="95" ht="30" customHeight="1" spans="1:1">
-      <c r="A95" s="10">
-        <v>44606</v>
+      <c r="A95" s="8">
+        <v>44710</v>
       </c>
     </row>
     <row r="96" ht="30" customHeight="1" spans="1:1">
-      <c r="A96" s="10">
-        <v>44607</v>
+      <c r="A96" s="8">
+        <v>44711</v>
       </c>
     </row>
     <row r="97" ht="30" customHeight="1" spans="1:1">
-      <c r="A97" s="10">
-        <v>44608</v>
+      <c r="A97" s="8">
+        <v>44712</v>
       </c>
     </row>
     <row r="98" ht="30" customHeight="1" spans="1:1">
-      <c r="A98" s="10">
-        <v>44609</v>
+      <c r="A98" s="8">
+        <v>44713</v>
       </c>
     </row>
     <row r="99" ht="30" customHeight="1" spans="1:1">
-      <c r="A99" s="10">
-        <v>44610</v>
+      <c r="A99" s="8">
+        <v>44714</v>
       </c>
     </row>
     <row r="100" ht="30" customHeight="1" spans="1:1">
-      <c r="A100" s="10">
-        <v>44611</v>
+      <c r="A100" s="8">
+        <v>44715</v>
       </c>
     </row>
     <row r="101" ht="30" customHeight="1" spans="1:1">
-      <c r="A101" s="10">
-        <v>44612</v>
+      <c r="A101" s="8">
+        <v>44716</v>
       </c>
     </row>
     <row r="102" ht="30" customHeight="1" spans="1:1">
-      <c r="A102" s="10">
-        <v>44613</v>
+      <c r="A102" s="8">
+        <v>44717</v>
       </c>
     </row>
     <row r="103" ht="30" customHeight="1" spans="1:1">
-      <c r="A103" s="10">
-        <v>44614</v>
+      <c r="A103" s="8">
+        <v>44718</v>
       </c>
     </row>
     <row r="104" ht="30" customHeight="1" spans="1:1">
-      <c r="A104" s="10">
-        <v>44615</v>
+      <c r="A104" s="8">
+        <v>44719</v>
       </c>
     </row>
     <row r="105" ht="30" customHeight="1" spans="1:1">
-      <c r="A105" s="10">
-        <v>44616</v>
+      <c r="A105" s="8">
+        <v>44720</v>
       </c>
     </row>
     <row r="106" ht="30" customHeight="1" spans="1:1">
-      <c r="A106" s="10">
-        <v>44617</v>
+      <c r="A106" s="8">
+        <v>44721</v>
       </c>
     </row>
     <row r="107" ht="30" customHeight="1" spans="1:1">
-      <c r="A107" s="10">
-        <v>44618</v>
+      <c r="A107" s="8">
+        <v>44722</v>
       </c>
     </row>
     <row r="108" ht="30" customHeight="1" spans="1:1">
-      <c r="A108" s="10">
-        <v>44619</v>
+      <c r="A108" s="8">
+        <v>44723</v>
       </c>
     </row>
     <row r="109" ht="30" customHeight="1" spans="1:1">
-      <c r="A109" s="10">
-        <v>44620</v>
+      <c r="A109" s="8">
+        <v>44724</v>
       </c>
     </row>
     <row r="110" ht="30" customHeight="1" spans="1:1">
-      <c r="A110" s="10">
-        <v>44621</v>
+      <c r="A110" s="8">
+        <v>44725</v>
       </c>
     </row>
     <row r="111" ht="30" customHeight="1" spans="1:1">
-      <c r="A111" s="10">
-        <v>44622</v>
+      <c r="A111" s="8">
+        <v>44726</v>
       </c>
     </row>
     <row r="112" ht="30" customHeight="1" spans="1:1">
-      <c r="A112" s="10">
-        <v>44623</v>
+      <c r="A112" s="8">
+        <v>44727</v>
       </c>
     </row>
     <row r="113" ht="30" customHeight="1" spans="1:1">
-      <c r="A113" s="10">
-        <v>44624</v>
+      <c r="A113" s="8">
+        <v>44728</v>
       </c>
     </row>
     <row r="114" ht="30" customHeight="1" spans="1:1">
-      <c r="A114" s="10">
-        <v>44625</v>
+      <c r="A114" s="8">
+        <v>44729</v>
       </c>
     </row>
     <row r="115" ht="30" customHeight="1" spans="1:1">
-      <c r="A115" s="10">
-        <v>44626</v>
+      <c r="A115" s="8">
+        <v>44730</v>
       </c>
     </row>
     <row r="116" ht="30" customHeight="1" spans="1:1">
-      <c r="A116" s="10">
-        <v>44627</v>
+      <c r="A116" s="8">
+        <v>44731</v>
       </c>
     </row>
     <row r="117" ht="30" customHeight="1" spans="1:1">
-      <c r="A117" s="10">
-        <v>44628</v>
+      <c r="A117" s="8">
+        <v>44732</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="10"/>
+      <c r="A118" s="8">
+        <v>44733</v>
+      </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="10"/>
+      <c r="A119" s="8">
+        <v>44734</v>
+      </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="10"/>
+      <c r="A120" s="8">
+        <v>44735</v>
+      </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="10"/>
+      <c r="A121" s="8">
+        <v>44736</v>
+      </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="10"/>
+      <c r="A122" s="8">
+        <v>44737</v>
+      </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="10"/>
+      <c r="A123" s="8">
+        <v>44738</v>
+      </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="10"/>
+      <c r="A124" s="8">
+        <v>44739</v>
+      </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="10"/>
+      <c r="A125" s="8">
+        <v>44740</v>
+      </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="10"/>
+      <c r="A126" s="8">
+        <v>44741</v>
+      </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="10"/>
+      <c r="A127" s="8">
+        <v>44742</v>
+      </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="10"/>
+      <c r="A128" s="8">
+        <v>44743</v>
+      </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="10"/>
+      <c r="A129" s="8">
+        <v>44744</v>
+      </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="10"/>
+      <c r="A130" s="8">
+        <v>44745</v>
+      </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="10"/>
+      <c r="A131" s="8">
+        <v>44746</v>
+      </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="10"/>
+      <c r="A132" s="8">
+        <v>44747</v>
+      </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="10"/>
+      <c r="A133" s="8">
+        <v>44748</v>
+      </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="10"/>
+      <c r="A134" s="8">
+        <v>44749</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="8">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="8">
+        <v>44751</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="8">
+        <v>44752</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="8">
+        <v>44753</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="8">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="8">
+        <v>44755</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="8">
+        <v>44756</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="8">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="8">
+        <v>44758</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="8">
+        <v>44759</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="8">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="8">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="8">
+        <v>44762</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="8">
+        <v>44763</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="8">
+        <v>44764</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="8">
+        <v>44765</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="8">
+        <v>44766</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="8">
+        <v>44767</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="8">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="8">
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="8">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="8">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="8">
+        <v>44772</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="8">
+        <v>44773</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="8">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="8">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="8">
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="8">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="8">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="8">
+        <v>44779</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="8">
+        <v>44780</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="8">
+        <v>44781</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="8">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="8">
+        <v>44783</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="8">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="8">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="8">
+        <v>44786</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="8">
+        <v>44787</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="8">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="8">
+        <v>44789</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="8">
+        <v>44790</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="8">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="8">
+        <v>44792</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="8">
+        <v>44793</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="8">
+        <v>44794</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="8">
+        <v>44795</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="8">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="8">
+        <v>44797</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="8">
+        <v>44798</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="8">
+        <v>44799</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="8">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="8">
+        <v>44801</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="8">
+        <v>44802</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="8">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="8">
+        <v>44804</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="8">
+        <v>44805</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="8">
+        <v>44806</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="8">
+        <v>44807</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="8">
+        <v>44808</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="8">
+        <v>44809</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="8">
+        <v>44810</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="8">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="8">
+        <v>44812</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="8">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="8">
+        <v>44814</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="8">
+        <v>44815</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="8">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="8">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="8">
+        <v>44818</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="8">
+        <v>44819</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="8">
+        <v>44820</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="8">
+        <v>44821</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="8">
+        <v>44822</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="8">
+        <v>44823</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="8">
+        <v>44824</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="8">
+        <v>44825</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="8">
+        <v>44826</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="8">
+        <v>44827</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="8">
+        <v>44828</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="8">
+        <v>44829</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="8">
+        <v>44830</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="8">
+        <v>44831</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="8">
+        <v>44832</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="8">
+        <v>44833</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="8">
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="8">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="8">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="8">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="8">
+        <v>44838</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="8">
+        <v>44839</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="8">
+        <v>44840</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="8">
+        <v>44841</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="8">
+        <v>44842</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="8">
+        <v>44843</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="8">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="8">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="8">
+        <v>44846</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="8">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="8">
+        <v>44848</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="8">
+        <v>44849</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="8">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="8">
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="8">
+        <v>44852</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="8">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="8">
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="8">
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="8">
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="8">
+        <v>44857</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="8">
+        <v>44858</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="8">
+        <v>44859</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="8">
+        <v>44860</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="8">
+        <v>44861</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="8">
+        <v>44862</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="8">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="8">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="8">
+        <v>44865</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="8">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="8">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="8">
+        <v>44868</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="8">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="8">
+        <v>44870</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="8">
+        <v>44871</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="8">
+        <v>44872</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="8">
+        <v>44873</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="8">
+        <v>44874</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="8">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="8">
+        <v>44876</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="8">
+        <v>44877</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="8">
+        <v>44878</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="8">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="8">
+        <v>44880</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="8">
+        <v>44881</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="8">
+        <v>44882</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="8">
+        <v>44883</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="8">
+        <v>44884</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="8">
+        <v>44885</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="8">
+        <v>44886</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="8">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="8">
+        <v>44888</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="8">
+        <v>44889</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="8">
+        <v>44890</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="8">
+        <v>44891</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="8">
+        <v>44892</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="8">
+        <v>44893</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="8">
+        <v>44894</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="8">
+        <v>44895</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="8">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="8">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="8">
+        <v>44898</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="8">
+        <v>44899</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="8">
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="8">
+        <v>44901</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="8">
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="8">
+        <v>44903</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="8">
+        <v>44904</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="8">
+        <v>44905</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="8">
+        <v>44906</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="8">
+        <v>44907</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="8">
+        <v>44908</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="8">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="8">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="8">
+        <v>44911</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="8">
+        <v>44912</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="8">
+        <v>44913</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="8">
+        <v>44914</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="8">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="8">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="8">
+        <v>44917</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="8">
+        <v>44918</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="8">
+        <v>44919</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="8">
+        <v>44920</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="8">
+        <v>44921</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="8">
+        <v>44922</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="8">
+        <v>44923</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="8">
+        <v>44924</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="8">
+        <v>44925</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="8">
+        <v>44926</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="8"/>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="8"/>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="8"/>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="8"/>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="8"/>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="8"/>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="8"/>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="8"/>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="8"/>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="8"/>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="8"/>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="8"/>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="8"/>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="8"/>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="8"/>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="8"/>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="8"/>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="8"/>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="8"/>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="8"/>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="8"/>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="8"/>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="8"/>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="8"/>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="8"/>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="8"/>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="8"/>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="8"/>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="8"/>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="8"/>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="8"/>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="8"/>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="8"/>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="8"/>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="8"/>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="8"/>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="8"/>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="8"/>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="8"/>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="8"/>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="8"/>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="8"/>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="8"/>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="8"/>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="8"/>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="8"/>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="8"/>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="8"/>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="8"/>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="8"/>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="8"/>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="8"/>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="8"/>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="8"/>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="8"/>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="8"/>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="8"/>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="8"/>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="8"/>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1978,16 +2990,16 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1995,9 +3007,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
